--- a/data/trans_dic/Q20C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 62,42</t>
+          <t>15,99; 58,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 37,69</t>
+          <t>7,01; 38,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,99</t>
+          <t>0,0; 34,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,05; 57,04</t>
+          <t>16,31; 56,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 41,63</t>
+          <t>12,4; 44,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 36,87</t>
+          <t>10,66; 38,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 39,71</t>
+          <t>6,87; 37,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 27,81</t>
+          <t>2,57; 25,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 43,05</t>
+          <t>17,93; 43,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 32,27</t>
+          <t>10,7; 31,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 30,76</t>
+          <t>5,55; 30,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 38,35</t>
+          <t>13,32; 38,74</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 40,59</t>
+          <t>7,69; 39,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 50,28</t>
+          <t>15,71; 49,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 40,36</t>
+          <t>10,0; 40,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,81</t>
+          <t>0,0; 28,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 44,63</t>
+          <t>12,28; 45,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 54,03</t>
+          <t>16,19; 50,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 41,15</t>
+          <t>9,52; 36,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,23</t>
+          <t>0,0; 22,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 36,14</t>
+          <t>14,71; 38,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,17; 44,83</t>
+          <t>20,52; 43,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,92; 33,76</t>
+          <t>13,18; 33,48</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,47</t>
+          <t>0,0; 72,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 55,19</t>
+          <t>0,0; 56,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 84,94</t>
+          <t>14,02; 86,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 57,17</t>
+          <t>6,76; 60,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,27</t>
+          <t>0,0; 56,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 71,5</t>
+          <t>9,19; 70,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 48,0</t>
+          <t>8,68; 45,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 44,76</t>
+          <t>14,05; 43,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 31,87</t>
+          <t>10,91; 32,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 35,68</t>
+          <t>11,87; 38,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 38,93</t>
+          <t>17,12; 40,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 30,56</t>
+          <t>8,14; 30,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,67</t>
+          <t>17,96; 37,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 39,03</t>
+          <t>16,52; 39,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 28,53</t>
+          <t>12,02; 29,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 31,22</t>
+          <t>13,61; 30,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 31,82</t>
+          <t>17,4; 32,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 33,82</t>
+          <t>16,72; 33,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 30,02</t>
+          <t>16,21; 30,59</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mayor tiempo de espera (más de 7 meses) para ser hopitalizado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6368</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5348</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7713</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8318</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4720</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14081</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13690</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5779</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6711</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2754; 10128</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1950; 10645</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4425</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2524; 8812</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3801; 13577</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4068; 14574</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1704; 9382</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>331; 3272</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8587; 20901</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7062; 20673</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2095; 11552</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3781; 10992</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6084</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6947</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9145</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11299</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15229</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21383</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12182</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1601</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2164; 11217</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5345; 16883</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3053; 12300</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4041</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4168; 15383</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5410; 17013</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2280; 8806</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4966</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9132; 23850</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13837; 29628</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7184; 18247</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2502</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2502</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6106</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1760</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1572</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6094</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1491</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1267; 7834</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1148</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>471; 4247</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7020</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1114; 8592</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1678</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1535; 8080</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11143</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14839</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16019</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17560</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>33418</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27161</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23127</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4680; 14587</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6444; 18900</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6087; 19857</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9714; 22730</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3990; 14723</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14580; 30653</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9952; 23784</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5266; 12741</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11208; 25061</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24401; 45049</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18642; 37453</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16301; 30760</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>